--- a/Arduino/Motor Power vs Ticks Readings.xlsx
+++ b/Arduino/Motor Power vs Ticks Readings.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/659c071ba0b66ebb/Documents/GitHub/MDP-Group-10/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{AA1F762F-1AE2-408F-B6FD-06B7F0120EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4DFA6B07-12A4-4F10-A645-AC57FD0E0FEA}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{AA1F762F-1AE2-408F-B6FD-06B7F0120EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0FA2D83-CF14-4734-9AD7-98106D7E3643}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{7689990E-27A7-4D51-9488-313FA9D6FAA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Motor Speed vs Ticks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -169,20 +169,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,67 +501,67 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L19"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
       <c r="B3" s="1">
@@ -595,12 +595,12 @@
         <v>142.19999999999999</v>
       </c>
       <c r="L3" s="1">
-        <f>AVERAGE(B3:K3)</f>
+        <f t="shared" ref="L3:L10" si="0">AVERAGE(B3:K3)</f>
         <v>141.39000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>100</v>
       </c>
       <c r="B4" s="1">
@@ -634,12 +634,12 @@
         <v>346.9</v>
       </c>
       <c r="L4" s="1">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" si="0"/>
         <v>345.63</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>150</v>
       </c>
       <c r="B5" s="1">
@@ -673,12 +673,12 @@
         <v>565.70000000000005</v>
       </c>
       <c r="L5" s="1">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>563.38</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>200</v>
       </c>
       <c r="B6" s="1">
@@ -712,12 +712,12 @@
         <v>792.3</v>
       </c>
       <c r="L6" s="1">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>789.2700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>250</v>
       </c>
       <c r="B7" s="1">
@@ -751,12 +751,12 @@
         <v>1014.5</v>
       </c>
       <c r="L7" s="1">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>1012.4699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>300</v>
       </c>
       <c r="B8" s="1">
@@ -790,144 +790,144 @@
         <v>1232.7</v>
       </c>
       <c r="L8" s="1">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>1234.3200000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>350</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>1440.1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1436.2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>1435.9</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1433.6</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>1438.6</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>1441.3</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>1443.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>1445.5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>1449.3</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>1444.5</v>
       </c>
-      <c r="L9" s="6">
-        <f>AVERAGE(B9:K9)</f>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
         <v>1440.85</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>400</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>1590.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1587.7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>1587.7</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1589.3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>1588.2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1587.1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>1585.9</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>1588.2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>1590.1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1593.3</v>
       </c>
-      <c r="L10" s="6">
-        <f>AVERAGE(B10:K10)</f>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
         <v>1588.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>50</v>
       </c>
       <c r="B14" s="1">
@@ -961,12 +961,12 @@
         <v>115.8</v>
       </c>
       <c r="L14" s="1">
-        <f>AVERAGE(B14:K14)</f>
+        <f t="shared" ref="L14:L21" si="1">AVERAGE(B14:K14)</f>
         <v>114.82000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>100</v>
       </c>
       <c r="B15" s="1">
@@ -1000,12 +1000,12 @@
         <v>295.7</v>
       </c>
       <c r="L15" s="1">
-        <f>AVERAGE(B15:K15)</f>
+        <f t="shared" si="1"/>
         <v>294.76</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>150</v>
       </c>
       <c r="B16" s="1">
@@ -1039,12 +1039,12 @@
         <v>515.20000000000005</v>
       </c>
       <c r="L16" s="1">
-        <f>AVERAGE(B16:K16)</f>
+        <f t="shared" si="1"/>
         <v>510.82</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>200</v>
       </c>
       <c r="B17" s="1">
@@ -1078,12 +1078,12 @@
         <v>749.5</v>
       </c>
       <c r="L17" s="1">
-        <f>AVERAGE(B17:K17)</f>
+        <f t="shared" si="1"/>
         <v>742.4</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>250</v>
       </c>
       <c r="B18" s="1">
@@ -1117,12 +1117,12 @@
         <v>989.1</v>
       </c>
       <c r="L18" s="1">
-        <f>AVERAGE(B18:K18)</f>
+        <f t="shared" si="1"/>
         <v>983.21</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>300</v>
       </c>
       <c r="B19" s="1">
@@ -1156,85 +1156,85 @@
         <v>1231.4000000000001</v>
       </c>
       <c r="L19" s="1">
-        <f>AVERAGE(B19:K19)</f>
+        <f t="shared" si="1"/>
         <v>1228.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>350</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>1474.1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>1474.6</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>1474.9</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>1471.8</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>1473.5</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>1478.7</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>1476.1</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>1476.9</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>1479.5</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>1481.1</v>
       </c>
-      <c r="L20" s="6">
-        <f>AVERAGE(B20:K20)</f>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
         <v>1476.1200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>400</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>1630.1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1628.1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>1625.3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>1624.5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>1624</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>1627</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>1627.4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>1620</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>1623.2</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>1621.7</v>
       </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(B21:K21)</f>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
         <v>1625.13</v>
       </c>
     </row>
